--- a/datasets/resultado_comp_rankings.xlsx
+++ b/datasets/resultado_comp_rankings.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z62"/>
+  <dimension ref="A1:AA61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,95 +470,100 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>buscar_apelidos</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>termos_excluir_pesquisa</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>termos_obrigatorios_pesquisa</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Código_x</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>CNPJ</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>RAZÃO SOCIAL</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>SETOR_x</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>ultima_data_publicacao</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Código_y</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>SETOR_y</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>RANKING</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>CARTEIRA?</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>SCORE ISE B3</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Empresa Merco</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Escore Merco</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Escore_Yahoo_Norm</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>QtdeNoticias</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Polaridade</t>
         </is>
@@ -566,7 +571,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -584,69 +589,70 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
         <is>
           <t>AESB3</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>AES Brasil</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>37.663.076/0001-07</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>AES BRASIL ENERGIA S.A.</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>Utilidade Pública/Energia Elétrica (Geração e Transmissão)</t>
         </is>
       </c>
-      <c r="O2" s="2" t="n">
-        <v>44985</v>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="P2" s="2" t="n">
+        <v>45373.08359953704</v>
+      </c>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>AESB3</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>Utilidade Pública/Energia Elétrica (Geração e Transmissão)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>19</v>
       </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="T2" t="n">
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="U2" t="n">
         <v>80.16239388388098</v>
       </c>
-      <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="n">
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="n">
         <v>45</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AA2" t="n">
         <v>67.50936410030623</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -664,67 +670,68 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
         <is>
           <t>ALSO3</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>Aliansce Sonae</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>05.878.397/0001-32</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>ALIANSCE SONAE SHOPPING CENTERS S.A.</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>Financeiro e Outros/Exploração de Imóveis</t>
         </is>
       </c>
-      <c r="O3" s="2" t="n">
+      <c r="P3" s="2" t="n">
         <v>44956</v>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>ALSO3</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>Financeiro e Outros/Exploração de Imóveis</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>60</v>
       </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="T3" t="n">
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="U3" t="n">
         <v>68.16817343117162</v>
       </c>
-      <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="n">
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="n">
         <v>16</v>
       </c>
-      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -742,55 +749,56 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
         <is>
           <t>ALPA4</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>Alpargatas</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>61.079.117/0001-05</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>ALPARGATAS SA</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" s="2" t="n">
-        <v>45303</v>
-      </c>
-      <c r="P4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" s="2" t="n">
+        <v>45371.379375</v>
+      </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr">
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
         <is>
           <t>ALPARGATAS</t>
         </is>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>6484</v>
       </c>
-      <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="n">
-        <v>20</v>
-      </c>
+      <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="n">
-        <v>64.71327934382762</v>
+        <v>19</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>63.68945076736316</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -806,85 +814,86 @@
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
         <is>
           <t>lança cerveja,coca-cola</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
         <is>
           <t>ABEV3</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>Ambev</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>07.526.557/0001-00</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>AMBEV S.A.</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>Consumo não Cíclico/Bebidas/Cervejas e Refrigerantes</t>
         </is>
       </c>
-      <c r="O5" s="2" t="n">
-        <v>45331</v>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="P5" s="2" t="n">
+        <v>45373.39547453704</v>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>ABEV3</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>Consumo não Cíclico/Bebidas/Cervejas e Refrigerantes</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>53</v>
       </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="T5" t="n">
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="U5" t="n">
         <v>70.366137055149</v>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>AMBEV</t>
         </is>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>8264</v>
       </c>
-      <c r="W5" s="2" t="n">
+      <c r="X5" s="2" t="n">
         <v>44774</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Y5" t="n">
         <v>78.23</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Z5" t="n">
         <v>134</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AA5" t="n">
         <v>79.96545459971178</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -900,75 +909,76 @@
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
         <is>
           <t>Vivace assai,mateus,walmart</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
         <is>
           <t>ASAI3</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>Assaí</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>06.057.223/0001-71</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>SENDAS DISTRIBUIDORA S.A.</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>Consumo não Cíclico/Comércio e Distribuição/Alimentos</t>
         </is>
       </c>
-      <c r="O6" s="2" t="n">
-        <v>45321</v>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="P6" s="2" t="n">
+        <v>45373.54359953704</v>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>ASAI3</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>Consumo não Cíclico/Comércio e Distribuição/Alimentos</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>55</v>
       </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="T6" t="n">
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="U6" t="n">
         <v>70.14129158836715</v>
       </c>
-      <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="n">
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="n">
         <v>59</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AA6" t="n">
         <v>59.04280454932928</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -984,61 +994,58 @@
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
         <is>
           <t>pesquisa feita pelo Instituto Avon,Corazza,Instituto Avon divulga,Instituto Avon aponta,desenvolvido pelo Instituto Avon,BBB,protetor solar,uma pesquisa do Instituto Avon,Stratford-upon-Avon,Barbiecore,patrocina Camarote,dado de atendimento do Instituto Avon é alarmante</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
         <is>
           <t>Avon</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Avon</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>56.991.441/0001-57</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>Avon Cosmeticos Ltda.</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" s="2" t="n">
-        <v>45328</v>
-      </c>
-      <c r="P7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" s="2" t="n">
+        <v>45373.57204861111</v>
+      </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr">
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr">
         <is>
           <t>AVON</t>
         </is>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>6621</v>
       </c>
-      <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="n">
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="n">
         <v>33</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AA7" t="n">
         <v>63.31562261813833</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1054,85 +1061,86 @@
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
         <is>
           <t>sinare,sangue azul,trem azul,Pálido Ponto Azul</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>passagem,anac,aérea,aéreas,aviação,avião,aviões,passagens,vôo,vôos,viagem,viagens</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>AZUL4</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>Azul</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>09.305.994/0001-29</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>AZUL S.A.</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>Bens Industriais/Transporte/Transporte Aéreo</t>
         </is>
       </c>
-      <c r="O8" s="2" t="n">
-        <v>45328</v>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="P8" s="2" t="n">
+        <v>45373.48645833333</v>
+      </c>
+      <c r="Q8" t="inlineStr">
         <is>
           <t>AZUL4</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="R8" t="inlineStr">
         <is>
           <t>Bens Industriais/Transporte/Transporte Aéreo</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>47</v>
       </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="T8" t="n">
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="U8" t="n">
         <v>73.5955710332735</v>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>AZUL</t>
         </is>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>4424</v>
       </c>
-      <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="n">
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="n">
         <v>41</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="AA8" t="n">
         <v>54.45601016898952</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1148,67 +1156,66 @@
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
         <is>
           <t>ações da b3,empresas da b3,listadas na b3,b3 fechou em,fechou em alta,fechou em baixa,ISE,índice de sustentabilidade,passam a ser negociadas ,passa a negociar primeiros,pausa para o carnaval ,podem negociar BDR na B3,Como Investir no Mercado de Ações,Instituto dos Auditores Independentes do Brasil,entra no Novo Mercado da B3,passa a integrar índice,liberados para todos os investidores,disparam no mundo ,abertura de capital na B3,vitamina B3,operador mega bolsa</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>a b3,a bolsa</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>B3SA3</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>B3</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>09.346.601/0001-25</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>B3 S.A.</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>Financeiro e Outros/Serviços Financeiros Diversos</t>
         </is>
       </c>
-      <c r="O9" s="2" t="n">
-        <v>44984</v>
-      </c>
-      <c r="P9" t="inlineStr"/>
+      <c r="P9" s="2" t="n">
+        <v>45373.569375</v>
+      </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
-      <c r="W9" s="2" t="n">
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" s="2" t="n">
         <v>44927</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Y9" t="n">
         <v>84.81999999999999</v>
       </c>
-      <c r="Y9" t="n">
-        <v>23</v>
-      </c>
       <c r="Z9" t="n">
-        <v>68.73153823938802</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="AA9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1224,69 +1231,70 @@
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr">
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
         <is>
           <t>evento do banco,sabatina do banco,encontro promovido pelo banco,onde investir,assalto,cangaço,reforma da previdência,aplicativo falso,Roni Peixoto,economista-chefe,economista chefe,open finance,das Lojas Americanas,da Americanas</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
         <is>
           <t>BBDC4</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>Banco Bradesco</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>60.746.948/0001-12</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>BANCO BRADESCO SA</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>Financeiro e Outros/Intermediários Financeiros/Bancos</t>
         </is>
       </c>
-      <c r="O10" s="2" t="n">
-        <v>45321</v>
-      </c>
-      <c r="P10" t="inlineStr"/>
+      <c r="P10" s="2" t="n">
+        <v>45372.12638888889</v>
+      </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr">
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr">
         <is>
           <t>BRADESCO</t>
         </is>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>6977</v>
       </c>
-      <c r="W10" s="2" t="n">
+      <c r="X10" s="2" t="n">
         <v>44774</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Y10" t="n">
         <v>78.45</v>
       </c>
-      <c r="Y10" t="n">
-        <v>85</v>
-      </c>
       <c r="Z10" t="n">
-        <v>45.32513290390403</v>
+        <v>94</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>45.58228955537156</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1302,65 +1310,66 @@
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
         <is>
           <t>Beauty’in,Beauty,apoio do BTG,assessorados pelo BTG,encontrar os investimentos,evento do banco,sabatina do banco,encontro promovido pelo banco,com a segurança de uma empresa BTG ,os bancos,passou pelos bancos,promovido pelo btg,Índice Zara,simulação gratuita,seguro viagem,renda fixa do BTG,portabilidade de previdência,onde investir,BDRs,te mostra como investir,Elon Musk,oportunidade em previdência,veja guia do BTG,conheça os novos,com quem entende do assunto,Civita,Autem,plugada ao BTG Pactual,Conheça o BTG+,investidores de sucesso,pré-cadastro para o PIX,Personal Financial Management,atrás apenas do banco BTG Pactual,Procurando ações,Abra sua conta no BTG,recomenda compra de ações ,surfar a onda dos juros altos,BTG Talks,futebol,Amber Group,13º salário,Encontro com Propósito,viajar para for a,Cripto Class,Evento online e gratuito,Segurança para sua família,mynt,por que investir,cashback,Tudo o que você precisa entender,está de casa nova,eike,ex-executivos do BTG Pactual,Banco digital C6,onvidado pelo banco de investimentos BTG Pactual,IPO fez corretora superar BTG Pactual,reduz taxa de corretagem,libera envio de remessas,plugado ao BTG Pactual,Bridgewater,das Lojas Americanas,da Americanas</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
         <is>
           <t>BPAC3</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>Banco BTG Pactual</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>30.306.294/0001-45</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>BANCO BTG PACTUAL S.A.</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>Financeiro e Outros/Intermediários Financeiros/Bancos</t>
         </is>
       </c>
-      <c r="O11" s="2" t="n">
-        <v>44977</v>
-      </c>
-      <c r="P11" t="inlineStr"/>
+      <c r="P11" s="2" t="n">
+        <v>45373.569375</v>
+      </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr">
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr">
         <is>
           <t>BTG PACTUAL</t>
         </is>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>4032</v>
       </c>
-      <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="n">
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="n">
         <v>43</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AA11" t="n">
         <v>69.69692632743856</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1380,73 +1389,74 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
         <is>
           <t>open finance,das Lojas Americanas,da Americanas</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>banco do brasil,BB,BBA3</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>BBAS3</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>Banco do Brasil</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>00.000.000/0001-91</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>BANCO DO BRASIL S.A.</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>Financeiro e Outros/Intermediários Financeiros/Bancos</t>
         </is>
       </c>
-      <c r="O12" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="P12" t="inlineStr"/>
+      <c r="P12" s="2" t="n">
+        <v>45373.62013888889</v>
+      </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr">
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr">
         <is>
           <t>BANCO DO BRASIL</t>
         </is>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>5026</v>
       </c>
-      <c r="W12" s="2" t="n">
+      <c r="X12" s="2" t="n">
         <v>44774</v>
       </c>
-      <c r="X12" t="n">
+      <c r="Y12" t="n">
         <v>79.41</v>
       </c>
-      <c r="Y12" t="n">
-        <v>46</v>
-      </c>
       <c r="Z12" t="n">
-        <v>26.13233932450835</v>
+        <v>45</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>25.38908946008354</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1464,63 +1474,64 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
         <is>
           <t>SANB4</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>Banco Santander</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>90.400.888/0001-42</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>BANCO SANTANDER (BRASIL) S.A.</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>Financeiro e Outros/Intermediários Financeiros/Bancos</t>
         </is>
       </c>
-      <c r="O13" s="2" t="n">
-        <v>45349</v>
-      </c>
-      <c r="P13" t="inlineStr"/>
+      <c r="P13" s="2" t="n">
+        <v>45372.97430555556</v>
+      </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr">
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr">
         <is>
           <t>SANTANDER</t>
         </is>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>5915</v>
       </c>
-      <c r="W13" s="2" t="n">
+      <c r="X13" s="2" t="n">
         <v>44774</v>
       </c>
-      <c r="X13" t="n">
+      <c r="Y13" t="n">
         <v>78.17</v>
       </c>
-      <c r="Y13" t="n">
-        <v>130</v>
-      </c>
       <c r="Z13" t="n">
-        <v>60.16183281968572</v>
+        <v>128</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>61.55986846417595</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1537,56 +1548,57 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
         <is>
           <t>bb,seguridade,bbse3</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>BBSE3</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>BB Seguridade</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>17.344.597/0001-94</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>BB SEGURIDADE PARTICIPAÇÕES S.A.</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" s="2" t="n">
-        <v>44966</v>
-      </c>
-      <c r="P14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" s="2" t="n">
+        <v>45370.80050925926</v>
+      </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
-      <c r="W14" s="2" t="n">
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" s="2" t="n">
         <v>44927</v>
       </c>
-      <c r="X14" t="n">
+      <c r="Y14" t="n">
         <v>81.51000000000001</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="Z14" t="n">
         <v>3</v>
       </c>
-      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1604,79 +1616,80 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
         <is>
           <t>BRKM5</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>Braskem</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>42.150.391/0001-70</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>BRASKEM S.A.</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>Materiais Básicos/Químicos/Petroquímicos</t>
         </is>
       </c>
-      <c r="O15" s="2" t="n">
-        <v>45344</v>
-      </c>
-      <c r="P15" t="inlineStr">
+      <c r="P15" s="2" t="n">
+        <v>45372.86805555555</v>
+      </c>
+      <c r="Q15" t="inlineStr">
         <is>
           <t>BRKM5</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="R15" t="inlineStr">
         <is>
           <t>Materiais Básicos/Químicos/Petroquímicos</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>22</v>
       </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="T15" t="n">
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="U15" t="n">
         <v>79.35557707858433</v>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>BRASKEM</t>
         </is>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>4617</v>
       </c>
-      <c r="W15" s="2" t="n">
+      <c r="X15" s="2" t="n">
         <v>44927</v>
       </c>
-      <c r="X15" t="n">
+      <c r="Y15" t="n">
         <v>74.76000000000001</v>
       </c>
-      <c r="Y15" t="n">
-        <v>128</v>
-      </c>
       <c r="Z15" t="n">
-        <v>76.68146218221958</v>
+        <v>117</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>72.74981776033846</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1692,85 +1705,86 @@
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr">
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
         <is>
           <t>tem vaga de emprego</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
         <is>
           <t>BRFS3</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>BRF</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>01.838.723/0001-27</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>BRF S.A.</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>Consumo não Cíclico/Alimentos/Carnes e Derivados</t>
         </is>
       </c>
-      <c r="O16" s="2" t="n">
-        <v>45334</v>
-      </c>
-      <c r="P16" t="inlineStr">
+      <c r="P16" s="2" t="n">
+        <v>45373.51561342592</v>
+      </c>
+      <c r="Q16" t="inlineStr">
         <is>
           <t>BRFS3</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="R16" t="inlineStr">
         <is>
           <t>Consumo não Cíclico/Alimentos/Carnes e Derivados</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>35</v>
       </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="T16" t="n">
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="U16" t="n">
         <v>76.19299736931079</v>
       </c>
-      <c r="U16" t="inlineStr">
+      <c r="V16" t="inlineStr">
         <is>
           <t>BRF</t>
         </is>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>5148</v>
       </c>
-      <c r="W16" s="2" t="n">
+      <c r="X16" s="2" t="n">
         <v>44927</v>
       </c>
-      <c r="X16" t="n">
+      <c r="Y16" t="n">
         <v>67.55</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="Z16" t="n">
         <v>92</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="AA16" t="n">
         <v>53.39382243072072</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1787,60 +1801,61 @@
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
         <is>
           <t>a c&amp;a,da c&amp;a,na c&amp;a,ceab3</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>CEAB3</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>C&amp;A</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>45.242.914/0001-05</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>C&amp;A Modas S.A.</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" s="2" t="n">
-        <v>44981</v>
-      </c>
-      <c r="P17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" s="2" t="n">
+        <v>45371.25253472223</v>
+      </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr">
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr">
         <is>
           <t>C&amp;A</t>
         </is>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>4660</v>
       </c>
-      <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="n">
-        <v>44</v>
-      </c>
+      <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="n">
-        <v>77.26163517250222</v>
+        <v>45</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>77.25826353045304</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1858,67 +1873,68 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr">
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
         <is>
           <t>CAML3</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>Camil Alimentos</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>64.904.295/0001-03</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>CAMIL ALIMENTOS S.A.</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>Consumo não Cíclico/Alimentos/Alimentos Diversos</t>
         </is>
       </c>
-      <c r="O18" s="2" t="n">
-        <v>44952</v>
-      </c>
-      <c r="P18" t="inlineStr">
+      <c r="P18" s="2" t="n">
+        <v>45258</v>
+      </c>
+      <c r="Q18" t="inlineStr">
         <is>
           <t>CAML3</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="R18" t="inlineStr">
         <is>
           <t>Consumo não Cíclico/Alimentos/Alimentos Diversos</t>
         </is>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>75</v>
       </c>
-      <c r="S18" t="inlineStr">
+      <c r="T18" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>52.940515291475</v>
       </c>
-      <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="n">
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="n">
         <v>3</v>
       </c>
-      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1934,67 +1950,68 @@
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr">
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
         <is>
           <t>cesar cielo,padrão editorial</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr">
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
         <is>
           <t>CIEL3</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>Cielo</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>01.027.058/0001-91</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>CIELO S.A.</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>Financeiro e Outros/Serviços Financeiros Diversos</t>
         </is>
       </c>
-      <c r="O19" s="2" t="n">
-        <v>45352</v>
-      </c>
-      <c r="P19" t="inlineStr"/>
+      <c r="P19" s="2" t="n">
+        <v>45371.69722222222</v>
+      </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr">
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr">
         <is>
           <t>CIELO</t>
         </is>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>4843</v>
       </c>
-      <c r="W19" s="2" t="n">
+      <c r="X19" s="2" t="n">
         <v>44593</v>
       </c>
-      <c r="X19" t="n">
+      <c r="Y19" t="n">
         <v>82.47</v>
       </c>
-      <c r="Y19" t="n">
+      <c r="Z19" t="n">
         <v>15</v>
       </c>
-      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -2012,64 +2029,69 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr">
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
         <is>
           <t>COGN3</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>Cogna</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>02.800.026/0001-40</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="N20" t="inlineStr">
         <is>
           <t>COGNA EDUCAÇÃO</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>Consumo Cíclico/Diversos/Serviços Educacionais</t>
         </is>
       </c>
-      <c r="O20" s="2" t="n">
-        <v>45261</v>
-      </c>
-      <c r="P20" t="inlineStr"/>
+      <c r="P20" s="2" t="n">
+        <v>45372.8521412037</v>
+      </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
-      <c r="W20" s="2" t="n">
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" s="2" t="n">
         <v>44927</v>
       </c>
-      <c r="X20" t="n">
+      <c r="Y20" t="n">
         <v>88.42</v>
       </c>
-      <c r="Y20" t="n">
+      <c r="Z20" t="n">
         <v>22</v>
       </c>
-      <c r="Z20" t="n">
+      <c r="AA20" t="n">
         <v>62.57971341206316</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>cosan</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
@@ -2080,63 +2102,64 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr">
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
         <is>
           <t>CSAN3</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>Cosan</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>50.746.577/0001-15</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="N21" t="inlineStr">
         <is>
           <t>COSAN SA INDUSTRIA E COMERCIO</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>Petróleo, Gás e Biocombustíveis/Exploração, Refino e Distribuição</t>
         </is>
       </c>
-      <c r="O21" s="2" t="n">
-        <v>44936</v>
-      </c>
-      <c r="P21" t="inlineStr"/>
+      <c r="P21" s="2" t="n">
+        <v>45371.81388888889</v>
+      </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr">
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr">
         <is>
           <t>COSAN</t>
         </is>
       </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
         <v>3364</v>
       </c>
-      <c r="W21" s="2" t="n">
+      <c r="X21" s="2" t="n">
         <v>44927</v>
       </c>
-      <c r="X21" t="n">
+      <c r="Y21" t="n">
         <v>67.17</v>
       </c>
-      <c r="Y21" t="n">
-        <v>27</v>
-      </c>
       <c r="Z21" t="n">
-        <v>43.99030452786852</v>
+        <v>28</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>44.76965927637725</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2152,74 +2175,71 @@
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr">
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
         <is>
           <t>Camargo Corrêa,Brookfield Energia,Safira Energia,Divulgação CPFL,hopi hari</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr">
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
         <is>
           <t>CPFE3</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>CPFL Energia</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>02.429.144/0001-93</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="N22" t="inlineStr">
         <is>
           <t>CPFL ENERGIA SA</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>Utilidade Pública/Energia Elétrica (Distribuição)</t>
         </is>
       </c>
-      <c r="O22" s="2" t="n">
-        <v>45338</v>
-      </c>
-      <c r="P22" t="inlineStr"/>
+      <c r="P22" s="2" t="n">
+        <v>45372.9961574074</v>
+      </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
-      <c r="W22" s="2" t="n">
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" s="2" t="n">
         <v>44927</v>
       </c>
-      <c r="X22" t="n">
+      <c r="Y22" t="n">
         <v>67.58</v>
       </c>
-      <c r="Y22" t="n">
-        <v>37</v>
-      </c>
       <c r="Z22" t="n">
-        <v>69.26990948691318</v>
+        <v>38</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>69.12513144096533</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>csn</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
+      <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
@@ -2233,58 +2253,59 @@
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr">
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
         <is>
           <t>csn,siderúrgica,siderurgia,CSNA3,aço</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>CSNA3</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>CSN</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>33.042.730/0001-04</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="N23" t="inlineStr">
         <is>
           <t>CIA SIDERURGICA NACIONAL</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" s="2" t="n">
-        <v>45352</v>
-      </c>
-      <c r="P23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" s="2" t="n">
+        <v>45371.36805555555</v>
+      </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
-      <c r="W23" s="2" t="n">
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" s="2" t="n">
         <v>44927</v>
       </c>
-      <c r="X23" t="n">
+      <c r="Y23" t="n">
         <v>60.95</v>
       </c>
-      <c r="Y23" t="n">
+      <c r="Z23" t="n">
         <v>19</v>
       </c>
-      <c r="Z23" t="n">
+      <c r="AA23" t="n">
         <v>35.97886904353032</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2302,67 +2323,68 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr">
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
         <is>
           <t>ECOR3</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>EcoRodovias</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>04.149.454/0001-80</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
+      <c r="N24" t="inlineStr">
         <is>
           <t>ECORODOVIAS INFRAESTRUTURA E LOGÍSTICA S.A.</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="O24" t="inlineStr">
         <is>
           <t>Bens Industriais/Transporte/Exploração de Rodovias</t>
         </is>
       </c>
-      <c r="O24" s="2" t="n">
-        <v>44967</v>
-      </c>
-      <c r="P24" t="inlineStr">
+      <c r="P24" s="2" t="n">
+        <v>45365</v>
+      </c>
+      <c r="Q24" t="inlineStr">
         <is>
           <t>ECOR3</t>
         </is>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="R24" t="inlineStr">
         <is>
           <t>Bens Industriais/Transporte/Exploração de Rodovias</t>
         </is>
       </c>
-      <c r="R24" t="n">
+      <c r="S24" t="n">
         <v>27</v>
       </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="T24" t="n">
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="U24" t="n">
         <v>78.25137591553653</v>
       </c>
-      <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="n">
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="n">
         <v>14</v>
       </c>
-      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2380,63 +2402,64 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr">
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
         <is>
           <t>ELET3</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>Eletrobras</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t>00.001.180/0001-26</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
+      <c r="N25" t="inlineStr">
         <is>
           <t>CENTRAIS ELETRICAS BRASILEIRAS SA</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="O25" t="inlineStr">
         <is>
           <t>Utilidade Pública/Energia Elétrica (Geração e Transmissão)</t>
         </is>
       </c>
-      <c r="O25" s="2" t="n">
-        <v>45356</v>
-      </c>
-      <c r="P25" t="inlineStr"/>
+      <c r="P25" s="2" t="n">
+        <v>45373.51561342592</v>
+      </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr">
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr">
         <is>
           <t>ELETROBRAS</t>
         </is>
       </c>
-      <c r="V25" t="n">
+      <c r="W25" t="n">
         <v>4066</v>
       </c>
-      <c r="W25" s="2" t="n">
+      <c r="X25" s="2" t="n">
         <v>44774</v>
       </c>
-      <c r="X25" t="n">
+      <c r="Y25" t="n">
         <v>63.49</v>
       </c>
-      <c r="Y25" t="n">
+      <c r="Z25" t="n">
         <v>103</v>
       </c>
-      <c r="Z25" t="n">
-        <v>18.71274516945326</v>
+      <c r="AA25" t="n">
+        <v>18.60322754071244</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2454,66 +2477,63 @@
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr">
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
         <is>
           <t>EMBR3</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>Embraer</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>07.689.002/0001-89</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
+      <c r="N26" t="inlineStr">
         <is>
           <t>EMBRAER S.A.</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" s="2" t="n">
-        <v>45345</v>
-      </c>
-      <c r="P26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" s="2" t="n">
+        <v>45373.39166666667</v>
+      </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr">
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr">
         <is>
           <t>EMBRAER</t>
         </is>
       </c>
-      <c r="V26" t="n">
+      <c r="W26" t="n">
         <v>4849</v>
       </c>
-      <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="n">
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="n">
         <v>99</v>
       </c>
-      <c r="Z26" t="n">
+      <c r="AA26" t="n">
         <v>69.59001228863659</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>engie</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
@@ -2524,73 +2544,74 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr">
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
         <is>
           <t>EGIE3</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t>Engie</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="M27" t="inlineStr">
         <is>
           <t>02.474.103/0001-19</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
+      <c r="N27" t="inlineStr">
         <is>
           <t>ENGIE BRASIL ENERGIA S.A.</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
+      <c r="O27" t="inlineStr">
         <is>
           <t>Utilidade Pública/Energia Elétrica (Geração e Transmissão)</t>
         </is>
       </c>
-      <c r="O27" s="2" t="n">
-        <v>45301</v>
-      </c>
-      <c r="P27" t="inlineStr">
+      <c r="P27" s="2" t="n">
+        <v>45373.59722222222</v>
+      </c>
+      <c r="Q27" t="inlineStr">
         <is>
           <t>EGIE3</t>
         </is>
       </c>
-      <c r="Q27" t="inlineStr">
+      <c r="R27" t="inlineStr">
         <is>
           <t>Utilidade Pública/Energia Elétrica (Geração e Transmissão)</t>
         </is>
       </c>
-      <c r="R27" t="n">
+      <c r="S27" t="n">
         <v>10</v>
       </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="T27" t="n">
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="U27" t="n">
         <v>82.71488532560771</v>
       </c>
-      <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
-      <c r="W27" s="2" t="n">
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" s="2" t="n">
         <v>44682</v>
       </c>
-      <c r="X27" t="n">
+      <c r="Y27" t="n">
         <v>84.03999999999999</v>
       </c>
-      <c r="Y27" t="n">
+      <c r="Z27" t="n">
         <v>45</v>
       </c>
-      <c r="Z27" t="n">
+      <c r="AA27" t="n">
         <v>73.46166428899819</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2606,76 +2627,77 @@
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr">
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
         <is>
           <t>carandiru,presídio,delegado,governo fleury,governador,stjd,bairro fleury,diz fleury,explica fleury</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
+          <t>exames,laboratório,saúde</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
           <t>FLRY3</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="L28" t="inlineStr">
         <is>
           <t>Fleury</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="M28" t="inlineStr">
         <is>
           <t>60.840.055/0001-31</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
+      <c r="N28" t="inlineStr">
         <is>
           <t>FLEURY SA</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
+      <c r="O28" t="inlineStr">
         <is>
           <t>Saúde/Serv.Méd.Hospit.,Análises e Diagnósticos</t>
         </is>
       </c>
-      <c r="O28" s="2" t="n">
-        <v>44974</v>
-      </c>
-      <c r="P28" t="inlineStr"/>
+      <c r="P28" s="2" t="n">
+        <v>45373.39166666667</v>
+      </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr">
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr">
         <is>
           <t>FLEURY</t>
         </is>
       </c>
-      <c r="V28" t="n">
+      <c r="W28" t="n">
         <v>5307</v>
       </c>
-      <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="n">
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="n">
         <v>48</v>
       </c>
-      <c r="Z28" t="n">
+      <c r="AA28" t="n">
         <v>66.92256082497747</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>gerdau</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
+      <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
@@ -2686,137 +2708,131 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr">
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
         <is>
           <t>GGBR4</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="L29" t="inlineStr">
         <is>
           <t>Gerdau</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="M29" t="inlineStr">
         <is>
           <t>33.611.500/0001-19</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
+      <c r="N29" t="inlineStr">
         <is>
           <t>GERDAU SA</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" s="2" t="n">
-        <v>45346</v>
-      </c>
-      <c r="P29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" s="2" t="n">
+        <v>45371.87202546297</v>
+      </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr">
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr">
         <is>
           <t>GERDAU</t>
         </is>
       </c>
-      <c r="V29" t="n">
+      <c r="W29" t="n">
         <v>5648</v>
       </c>
-      <c r="W29" s="2" t="n">
+      <c r="X29" s="2" t="n">
         <v>44927</v>
       </c>
-      <c r="X29" t="n">
+      <c r="Y29" t="n">
         <v>61.32</v>
       </c>
-      <c r="Y29" t="n">
+      <c r="Z29" t="n">
         <v>232</v>
       </c>
-      <c r="Z29" t="n">
+      <c r="AA29" t="n">
         <v>67.23854890844197</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>gol</t>
+          <t>grupo boticario</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>SIm</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>futebol</t>
-        </is>
-      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>aviação,passagem,passagens,linhas,aéreas,aéreo,anac,bilhete,bagagem,goll4,a gol,da gol,companhia</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>GOLL4</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>GOL</t>
-        </is>
-      </c>
+          <t>Medalha Boticário,praias,Batom Inteligente</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
-          <t>06.164.253/0001-87</t>
+          <t>Grupo Boticário</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>GOL LINHAS AEREAS INTELIGENTES SA</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" s="2" t="n">
-        <v>45350</v>
-      </c>
-      <c r="P30" t="inlineStr"/>
+          <t>11.137.051/0001-86</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>BOTICARIO PRODUTOS DE BELEZA LTDA</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" s="2" t="n">
+        <v>45354</v>
+      </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>GOL</t>
-        </is>
-      </c>
-      <c r="V30" t="n">
-        <v>4425</v>
-      </c>
-      <c r="W30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>GRUPO BOTICÁRIO</t>
+        </is>
+      </c>
+      <c r="W30" t="n">
+        <v>7404</v>
+      </c>
       <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="n">
-        <v>42</v>
-      </c>
+      <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="n">
-        <v>54.9522440096538</v>
+        <v>106</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>75.67510048392622</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>grupo boticario</t>
+          <t>grupo ccr</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -2828,65 +2844,84 @@
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Medalha Boticário,praias,Batom Inteligente</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>Boticário</t>
-        </is>
-      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>interdita rodovia,morto,morte,acidente</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Grupo Boticário</t>
+          <t>CCRO3</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>11.137.051/0001-86</t>
+          <t>Grupo CCR</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>BOTICARIO PRODUTOS DE BELEZA LTDA</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>GRUPO BOTICÁRIO</t>
-        </is>
-      </c>
-      <c r="V31" t="n">
-        <v>7404</v>
-      </c>
+          <t>02.846.056/0001-97</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>CCR S.A.</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Bens Industriais/Transporte/Exploração de Rodovias</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="n">
+        <v>45357</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>CCRO3</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>Bens Industriais/Transporte/Exploração de Rodovias</t>
+        </is>
+      </c>
+      <c r="S31" t="n">
+        <v>15</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="U31" t="n">
+        <v>80.74208043154863</v>
+      </c>
+      <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
+      <c r="X31" s="2" t="n">
+        <v>44927</v>
+      </c>
       <c r="Y31" t="n">
-        <v>105</v>
+        <v>88.27</v>
       </c>
       <c r="Z31" t="n">
-        <v>75.19454332898107</v>
+        <v>45</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>43.85017774901183</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>grupo ccr</t>
+          <t>grupo pao de acucar</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -2897,84 +2932,79 @@
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>interdita rodovia,morto,morte,acidente</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>gpa</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>BM-C-33,sambistas,Supermercados têm ceias,bondinho,redentor,de redes como Grupo Pão de Açúcar,walmart,vinho,vinhos,símbolo do Rio,cerveja,futebol</t>
+        </is>
+      </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>CCRO3</t>
+          <t>pao de acucar,GPA,PCAR3,pão de açucar</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Grupo CCR</t>
+          <t>PCAR3</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>02.846.056/0001-97</t>
+          <t>Grupo Pão de Açúcar</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>CCR S.A.</t>
+          <t>47.508.411/0001-56</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Bens Industriais/Transporte/Exploração de Rodovias</t>
-        </is>
-      </c>
-      <c r="O32" s="2" t="n">
-        <v>45344</v>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>CCRO3</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>Bens Industriais/Transporte/Exploração de Rodovias</t>
-        </is>
-      </c>
-      <c r="R32" t="n">
-        <v>15</v>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="T32" t="n">
-        <v>80.74208043154863</v>
-      </c>
+          <t>COMPANHIA BRASILEIRA DE DISTRIBUIÇÃO</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Consumo não Cíclico/Comércio e Distribuição/Alimentos</t>
+        </is>
+      </c>
+      <c r="P32" s="2" t="n">
+        <v>45370.97631944445</v>
+      </c>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" s="2" t="n">
-        <v>44927</v>
-      </c>
-      <c r="X32" t="n">
-        <v>88.27</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>44</v>
-      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>GPA</t>
+        </is>
+      </c>
+      <c r="W32" t="n">
+        <v>5360</v>
+      </c>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="n">
-        <v>44.08109420604269</v>
+        <v>30</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>35.61580811054986</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>grupo pao de acucar</t>
+          <t>grupo soma</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -2987,172 +3017,174 @@
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>gpa</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>BM-C-33,sambistas,Supermercados têm ceias,bondinho,redentor,de redes como Grupo Pão de Açúcar,walmart,vinho,vinhos,símbolo do Rio,cerveja,futebol</t>
-        </is>
-      </c>
+          <t>hering</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>pao de acucar,GPA,PCAR3,pão de açucar</t>
+          <t>MST,grupo soma R$,O jornalista viajou a convite do grupo Soma,As peças da Rains foram trazidas,dallagnol,O grupo soma cerca de,coleção-cápsula traz o DNA,O modelo double door propõe ,criam collab,amazon,Leroy Merlin,seguro para celular,Renner pode comprar,oferece retirada expressa,venda em terminais de ônibus e Metrô de São Paulo</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>PCAR3</t>
+          <t>SOMA3,grupo soma,hering</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Grupo Pão de Açúcar</t>
+          <t>SOMA3</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>47.508.411/0001-56</t>
+          <t>Grupo Soma</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>COMPANHIA BRASILEIRA DE DISTRIBUIÇÃO</t>
+          <t>10.285.590/0001-08</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Consumo não Cíclico/Comércio e Distribuição/Alimentos</t>
-        </is>
-      </c>
-      <c r="O33" s="2" t="n">
-        <v>45336</v>
-      </c>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>GPA</t>
-        </is>
-      </c>
-      <c r="V33" t="n">
-        <v>5360</v>
-      </c>
-      <c r="W33" t="inlineStr"/>
+          <t>GRUPO DE MODA SOMA S.A.</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Consumo Cíclico/Comércio/Tecidos, Vestuário e Calçados</t>
+        </is>
+      </c>
+      <c r="P33" s="2" t="n">
+        <v>45373.11458333334</v>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>SOMA3</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>Consumo Cíclico/Comércio/Tecidos, Vestuário e Calçados</t>
+        </is>
+      </c>
+      <c r="S33" t="n">
+        <v>73</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="U33" t="n">
+        <v>55.59909683094435</v>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>HERING</t>
+        </is>
+      </c>
+      <c r="W33" t="n">
+        <v>5021</v>
+      </c>
       <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="n">
-        <v>30</v>
-      </c>
+      <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="n">
-        <v>35.61580811054986</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="AA33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>198</v>
+        <v>226</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>grupo soma</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
+          <t>hypera</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
       <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>hering</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>MST,grupo soma R$,O jornalista viajou a convite do grupo Soma,As peças da Rains foram trazidas,dallagnol,O grupo soma cerca de,coleção-cápsula traz o DNA,O modelo double door propõe ,criam collab,amazon,Leroy Merlin,seguro para celular,Renner pode comprar,oferece retirada expressa,venda em terminais de ônibus e Metrô de São Paulo</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>SOMA3,grupo soma,hering</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>SOMA3</t>
-        </is>
-      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Grupo Soma</t>
+          <t>HYPE3</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>10.285.590/0001-08</t>
+          <t>Hypera</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>GRUPO DE MODA SOMA S.A.</t>
+          <t>02.932.074/0001-91</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Consumo Cíclico/Comércio/Tecidos, Vestuário e Calçados</t>
-        </is>
-      </c>
-      <c r="O34" s="2" t="n">
-        <v>44982</v>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>SOMA3</t>
-        </is>
+          <t>HYPERA S.A.</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Saúde/Comércio e Distribuição/Medicamentos e Outros Produtos</t>
+        </is>
+      </c>
+      <c r="P34" s="2" t="n">
+        <v>45365</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>Consumo Cíclico/Comércio/Tecidos, Vestuário e Calçados</t>
-        </is>
-      </c>
-      <c r="R34" t="n">
-        <v>73</v>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="T34" t="n">
-        <v>55.59909683094435</v>
-      </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>HERING</t>
-        </is>
-      </c>
-      <c r="V34" t="n">
-        <v>5021</v>
-      </c>
+          <t>HYPE3</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>Saúde/Comércio e Distribuição/Medicamentos e Outros Produtos</t>
+        </is>
+      </c>
+      <c r="S34" t="n">
+        <v>62</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="U34" t="n">
+        <v>66.20620918866315</v>
+      </c>
+      <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
+      <c r="X34" s="2" t="n">
+        <v>44682</v>
+      </c>
       <c r="Y34" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z34" t="inlineStr"/>
+        <v>64.05</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>hypera</t>
+          <t>iguatemi</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -3165,76 +3197,81 @@
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>na loja do Shopping Iguatemi,cidade de Iguatemi,cinemark iguatemi,ADNEWS,CIPM,academia de luxo no shopping,Brennand,Livraria Cultura,se encontrado no Shopping Iguatemi,daslu,numa loja do shopping Iguatemi,elenco do filme,estréia o filme,estréia do filme,Talks Fashion,exposição que está,sessão aconteceu no shopping,black friday,ancar,natal</t>
+        </is>
+      </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>HYPE3</t>
+          <t>A Iguatemi,na Iguatemi,da Iguatemi,jereissati,administradora,IGTA3,IGTI11,IGTI3,iguatemi lança,iguatemi deve,Iguatemi anuncia,Iguatemi declarou</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Hypera</t>
+          <t>IGTI3</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>02.932.074/0001-91</t>
+          <t>Iguatemi</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>HYPERA S.A.</t>
+          <t>60.543.816/0001-93</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Saúde/Comércio e Distribuição/Medicamentos e Outros Produtos</t>
-        </is>
-      </c>
-      <c r="O35" s="2" t="n">
-        <v>44963</v>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>HYPE3</t>
-        </is>
+          <t>IGUATEMI S.A.</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Financeiro e Outros/Exploração de Imóveis/Intermediação Imobiliária</t>
+        </is>
+      </c>
+      <c r="P35" s="2" t="n">
+        <v>45373.45878472222</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>Saúde/Comércio e Distribuição/Medicamentos e Outros Produtos</t>
-        </is>
-      </c>
-      <c r="R35" t="n">
-        <v>62</v>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="T35" t="n">
-        <v>66.20620918866315</v>
-      </c>
-      <c r="U35" t="inlineStr"/>
+          <t>IGTA3</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>Financeiro e Outros/Exploração de Imóveis/Intermediação Imobiliária</t>
+        </is>
+      </c>
+      <c r="S35" t="n">
+        <v>77</v>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="U35" t="n">
+        <v>50.22106943311654</v>
+      </c>
       <c r="V35" t="inlineStr"/>
-      <c r="W35" s="2" t="n">
-        <v>44682</v>
-      </c>
-      <c r="X35" t="n">
-        <v>64.05</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>iguatemi</t>
+          <t>itau unibanco</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -3246,88 +3283,77 @@
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>na loja do Shopping Iguatemi,cidade de Iguatemi,cinemark iguatemi,ADNEWS,CIPM,academia de luxo no shopping,Brennand,Livraria Cultura,se encontrado no Shopping Iguatemi,daslu,numa loja do shopping Iguatemi,elenco do filme,estréia o filme,estréia do filme,Talks Fashion,exposição que está,sessão aconteceu no shopping,black friday,ancar,natal</t>
-        </is>
-      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>A Iguatemi,na Iguatemi,da Iguatemi,jereissati,administradora,IGTA3,IGTI11,IGTI3,iguatemi lança,iguatemi deve,Iguatemi anuncia,Iguatemi declarou</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>IGTI3</t>
-        </is>
-      </c>
+          <t>Analistas do Itaú BBA,diz o Itaú BBA,consultoria agro,itaú asset,no Itaú Cultural,evento do banco,sabatina do banco,encontro promovido pelo banco,onde investir,golpe do pix,explodir um caixa eletrônico,economista-chefe,economista chefe,explodir caixa eletrônico,assalto,cangaço,reforma da previdência,aplicativo falso,Ciab Febraban,Liga de Mercado Financeiro,herdeira do Itaú,herdeiro do Itaú,Banco24Horas,Métodos ágeis,Metodologia ágil,open finance,passagens pelo banco itaú,das Lojas Americanas,da Americanas</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Iguatemi</t>
+          <t>ITUB4</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>60.543.816/0001-93</t>
+          <t>Itaú Unibanco</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>IGUATEMI S.A.</t>
+          <t>60.872.504/0001-23</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Financeiro e Outros/Exploração de Imóveis/Intermediação Imobiliária</t>
-        </is>
-      </c>
-      <c r="O36" s="2" t="n">
-        <v>44984</v>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>IGTA3</t>
-        </is>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>Financeiro e Outros/Exploração de Imóveis/Intermediação Imobiliária</t>
-        </is>
-      </c>
-      <c r="R36" t="n">
-        <v>77</v>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="T36" t="n">
-        <v>50.22106943311654</v>
-      </c>
+          <t>ITAÚ UNIBANCO HOLDING S.A.</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Financeiro e Outros/Intermediários Financeiros/Bancos</t>
+        </is>
+      </c>
+      <c r="P36" s="2" t="n">
+        <v>45373.51561342592</v>
+      </c>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>ITAÚ UNIBANCO</t>
+        </is>
+      </c>
+      <c r="W36" t="n">
+        <v>8141</v>
+      </c>
+      <c r="X36" s="2" t="n">
+        <v>44774</v>
+      </c>
       <c r="Y36" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z36" t="inlineStr"/>
+        <v>74.15000000000001</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>123</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>75.19164679708354</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>itau unibanco</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
+          <t>itausa</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
@@ -3336,73 +3362,66 @@
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Analistas do Itaú BBA,diz o Itaú BBA,consultoria agro,itaú asset,no Itaú Cultural,evento do banco,sabatina do banco,encontro promovido pelo banco,onde investir,golpe do pix,explodir um caixa eletrônico,economista-chefe,economista chefe,explodir caixa eletrônico,assalto,cangaço,reforma da previdência,aplicativo falso,Ciab Febraban,Liga de Mercado Financeiro,herdeira do Itaú,herdeiro do Itaú,Banco24Horas,Métodos ágeis,Metodologia ágil,open finance,passagens pelo banco itaú,das Lojas Americanas,da Americanas</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>ITUB4</t>
-        </is>
-      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>O Panorama Itaúsa,Villela (Itaúsa),Aquisição pela Itaúsa S.A.,petrobras,compra da liquigaz,anuncia compra de participação,compram fatia,pausa em novos investimentos,Viver de dividendos</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Itaú Unibanco</t>
+          <t>ITSA4</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>60.872.504/0001-23</t>
+          <t>Itaúsa</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>ITAÚ UNIBANCO HOLDING S.A.</t>
+          <t>61.532.644/0001-15</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Financeiro e Outros/Intermediários Financeiros/Bancos</t>
-        </is>
-      </c>
-      <c r="O37" s="2" t="n">
-        <v>45352</v>
-      </c>
-      <c r="P37" t="inlineStr"/>
+          <t>ITAÚSA – INVESTIMENTOS ITAÚ S.A.</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Financeiro e Outros/Holdings Diversificadas</t>
+        </is>
+      </c>
+      <c r="P37" s="2" t="n">
+        <v>45371.67074074074</v>
+      </c>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>ITAÚ UNIBANCO</t>
-        </is>
-      </c>
-      <c r="V37" t="n">
-        <v>8141</v>
-      </c>
-      <c r="W37" s="2" t="n">
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" s="2" t="n">
         <v>44774</v>
       </c>
-      <c r="X37" t="n">
-        <v>74.15000000000001</v>
-      </c>
       <c r="Y37" t="n">
-        <v>122</v>
+        <v>88.65000000000001</v>
       </c>
       <c r="Z37" t="n">
-        <v>74.90038199982608</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="AA37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>itausa</t>
+          <t>jbs</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -3414,72 +3433,77 @@
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>O Panorama Itaúsa,Villela (Itaúsa),Aquisição pela Itaúsa S.A.,petrobras,compra da liquigaz,anuncia compra de participação,compram fatia,pausa em novos investimentos,Viver de dividendos</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>ITSA4</t>
-        </is>
-      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>hypermarcas,picpay,Simpósio de Qualidade</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Itaúsa</t>
+          <t>JBSS3</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>61.532.644/0001-15</t>
+          <t>JBS</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>ITAÚSA – INVESTIMENTOS ITAÚ S.A.</t>
+          <t>02.916.265/0001-60</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Financeiro e Outros/Holdings Diversificadas</t>
-        </is>
-      </c>
-      <c r="O38" s="2" t="n">
-        <v>45349</v>
-      </c>
-      <c r="P38" t="inlineStr"/>
+          <t>JBS SA</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Consumo não Cíclico/Alimentos/Carnes e Derivados</t>
+        </is>
+      </c>
+      <c r="P38" s="2" t="n">
+        <v>45372.87503472222</v>
+      </c>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" s="2" t="n">
-        <v>44774</v>
-      </c>
-      <c r="X38" t="n">
-        <v>88.65000000000001</v>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>JBS</t>
+        </is>
+      </c>
+      <c r="W38" t="n">
+        <v>4788</v>
+      </c>
+      <c r="X38" s="2" t="n">
+        <v>44927</v>
       </c>
       <c r="Y38" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z38" t="inlineStr"/>
+        <v>51.11</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>258</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>54.30423919922228</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>jbs</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
+          <t>jereissati participacoes</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
@@ -3488,73 +3512,68 @@
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>hypermarcas,picpay,Simpósio de Qualidade</t>
-        </is>
-      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>JBSS3</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>JBS</t>
+          <t>IGTI3</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>02.916.265/0001-60</t>
+          <t>Jereissati Participações</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>JBS SA</t>
+          <t>60.543.816/0001-93</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Consumo não Cíclico/Alimentos/Carnes e Derivados</t>
-        </is>
-      </c>
-      <c r="O39" s="2" t="n">
-        <v>45356</v>
-      </c>
+          <t>IGUATEMI S.A.</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>JBS</t>
-        </is>
-      </c>
-      <c r="V39" t="n">
-        <v>4788</v>
-      </c>
-      <c r="W39" s="2" t="n">
-        <v>44927</v>
-      </c>
-      <c r="X39" t="n">
-        <v>51.11</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>223</v>
-      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>IGTA3</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>Financeiro e Outros/Exploração de Imóveis/Intermediação Imobiliária</t>
+        </is>
+      </c>
+      <c r="S39" t="n">
+        <v>77</v>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="U39" t="n">
+        <v>50.22106943311654</v>
+      </c>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="n">
-        <v>52.73916858930121</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AA39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>jereissati participacoes</t>
+          <t>klabin</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -3567,66 +3586,89 @@
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>ambientalista e acionista da Klabin diz,ex-presidente da Klabin,Chácara Klabin,Ex-senador,Museu Eva Klabin,Wolff Klabin,Rose Klabin,Ambientalista e acionista da Klabin,Assinatura de aditivo para financiamento,Durante inauguração da nova sede da Natura</t>
+        </is>
+      </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>IGTI3</t>
+          <t>KLBN11,KLBN3,papel,celulose,fábrica,papéis,a Klabin,da klabin,na klabin</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Jereissati Participações</t>
+          <t>KLBN4</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>60.543.816/0001-93</t>
+          <t>Klabin</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>IGUATEMI S.A.</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>IGTA3</t>
-        </is>
+          <t>89.637.490/0001-45</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>KLABIN S.A.</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Materiais Básicos/Madeira e Papel/Papel e Celulose</t>
+        </is>
+      </c>
+      <c r="P40" s="2" t="n">
+        <v>45373.51561342592</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>Financeiro e Outros/Exploração de Imóveis/Intermediação Imobiliária</t>
-        </is>
-      </c>
-      <c r="R40" t="n">
-        <v>77</v>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="T40" t="n">
-        <v>50.22106943311654</v>
-      </c>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
+          <t>KLBN3</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>Materiais Básicos/Madeira e Papel/Papel e Celulose</t>
+        </is>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="U40" t="n">
+        <v>86.04395782357739</v>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>KLABIN</t>
+        </is>
+      </c>
+      <c r="W40" t="n">
+        <v>4526</v>
+      </c>
       <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>68.34096807039676</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>klabin</t>
+          <t>localiza</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -3638,89 +3680,70 @@
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ambientalista e acionista da Klabin diz,ex-presidente da Klabin,Chácara Klabin,Ex-senador,Museu Eva Klabin,Wolff Klabin,Rose Klabin,Ambientalista e acionista da Klabin,Assinatura de aditivo para financiamento,Durante inauguração da nova sede da Natura</t>
-        </is>
-      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>KLBN11,KLBN3,papel,celulose,fábrica,papéis,a Klabin,da klabin,na klabin</t>
+          <t>que não quer ser a Localiza,SPFW Week,marcopolo,Quem busca um seminovo,localizá-la,vantagens de ter um carro,vantagens do modelo de aluguel,vale a pena ter um carro por assinatura</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>KLBN4</t>
+          <t>a localiza,da localiza,RENT3</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Klabin</t>
+          <t>RENT3</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>89.637.490/0001-45</t>
+          <t>Localiza</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>KLABIN S.A.</t>
+          <t>16.670.085/0001-55</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Materiais Básicos/Madeira e Papel/Papel e Celulose</t>
-        </is>
-      </c>
-      <c r="O41" s="2" t="n">
-        <v>45348</v>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>KLBN3</t>
-        </is>
-      </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>Materiais Básicos/Madeira e Papel/Papel e Celulose</t>
-        </is>
-      </c>
-      <c r="R41" t="n">
-        <v>5</v>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="T41" t="n">
-        <v>86.04395782357739</v>
-      </c>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>KLABIN</t>
-        </is>
-      </c>
-      <c r="V41" t="n">
-        <v>4526</v>
-      </c>
-      <c r="W41" t="inlineStr"/>
+          <t>LOCALIZA RENT A CAR SA</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" s="2" t="n">
+        <v>45373.61824074074</v>
+      </c>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>LOCALIZA</t>
+        </is>
+      </c>
+      <c r="W41" t="n">
+        <v>5340</v>
+      </c>
       <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="n">
-        <v>78</v>
-      </c>
+      <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="n">
-        <v>67.65844001553938</v>
+        <v>21</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>49.48979672395726</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>localiza</t>
+          <t>locaweb</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -3732,69 +3755,82 @@
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>que não quer ser a Localiza,SPFW Week,marcopolo,Quem busca um seminovo,localizá-la,vantagens de ter um carro,vantagens do modelo de aluguel,vale a pena ter um carro por assinatura</t>
-        </is>
-      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>a localiza,da localiza,RENT3</t>
+          <t>Thanassis,totvs,Neogrid</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>RENT3</t>
+          <t>a locaweb,da locaweb,LWSA3</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Localiza</t>
+          <t>LWSA3</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>16.670.085/0001-55</t>
+          <t>Locaweb</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>LOCALIZA RENT A CAR SA</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" s="2" t="n">
-        <v>45346</v>
-      </c>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
-      <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr">
-        <is>
-          <t>LOCALIZA</t>
-        </is>
-      </c>
-      <c r="V42" t="n">
-        <v>5340</v>
-      </c>
+          <t>02.351.877/0001-52</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>LOCAWEB SERVIÇOS DE INTERNET S.A.</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Tecnologia da Informação/Programas e Serviços</t>
+        </is>
+      </c>
+      <c r="P42" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>LWSA3</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>Tecnologia da Informação/Programas e Serviços</t>
+        </is>
+      </c>
+      <c r="S42" t="n">
+        <v>82</v>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="U42" t="n">
+        <v>34.64495200724027</v>
+      </c>
+      <c r="V42" t="inlineStr"/>
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="n">
-        <v>21</v>
-      </c>
+      <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="n">
-        <v>49.48979672395726</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="AA42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>locaweb</t>
+          <t>lojas americanas</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -3806,81 +3842,74 @@
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Thanassis,totvs,Neogrid</t>
-        </is>
-      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>a locaweb,da locaweb,LWSA3</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>LWSA3</t>
-        </is>
-      </c>
+          <t>norte-americanas,empresa americana,universidade americana,escola americana,faculdade americana,cidadania americana,adolescentes americanas,varejistas americanas,armadas americanas,tropas americanas,ativistas americanas,magazine luiza,magalu,mercado livre,meli,montadoras americanas,empresas americanas,EUA,Afro-latino-americanas,latino-americanas,latino americanas,autoridades americanas,black friday,páscoa,natal,estados unidos,smartphones,chocolate,comidas prontas,Sul-Americanas,Sul-Americana,eleições americanas,cidades americanas,atletas americanas,escolas americanas,faculdades americanas,universidades americanas</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Locaweb</t>
+          <t>AMER3</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>02.351.877/0001-52</t>
+          <t>Lojas Americanas</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>LOCAWEB SERVIÇOS DE INTERNET S.A.</t>
+          <t>33.014.556/0001-96</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Tecnologia da Informação/Programas e Serviços</t>
-        </is>
-      </c>
-      <c r="O43" s="2" t="n">
-        <v>44964</v>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>LWSA3</t>
-        </is>
-      </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>Tecnologia da Informação/Programas e Serviços</t>
-        </is>
-      </c>
-      <c r="R43" t="n">
-        <v>82</v>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="T43" t="n">
-        <v>34.64495200724027</v>
-      </c>
+          <t>LOJAS AMERICANAS SA</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Consumo Cíclico/Comércio/Produtos Diversos</t>
+        </is>
+      </c>
+      <c r="P43" s="2" t="n">
+        <v>45373.56081018518</v>
+      </c>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
-      <c r="X43" t="inlineStr"/>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>AMERICANAS S.A.</t>
+        </is>
+      </c>
+      <c r="W43" t="n">
+        <v>4987</v>
+      </c>
+      <c r="X43" s="2" t="n">
+        <v>44317</v>
+      </c>
       <c r="Y43" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z43" t="inlineStr"/>
+        <v>84</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>63</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>63.86597827642962</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>lojas americanas</t>
+          <t>lojas renner</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -3892,76 +3921,85 @@
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>norte-americanas,empresa americana,universidade americana,escola americana,faculdade americana,cidadania americana,adolescentes americanas,varejistas americanas,armadas americanas,tropas americanas,ativistas americanas,magazine luiza,magalu,mercado livre,meli,montadoras americanas,empresas americanas,EUA,Afro-latino-americanas,latino-americanas,latino americanas,autoridades americanas,black friday,páscoa,natal,estados unidos,smartphones,chocolate,comidas prontas,Sul-Americanas,Sul-Americana,eleições americanas,cidades americanas,atletas americanas,escolas americanas,faculdades americanas,universidades americanas</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>cantor,Kenzo,Estela Renner,expert xp</t>
+        </is>
+      </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>AMER3</t>
+          <t>lojas renner,LREN3,loja renner,a renner,da renner</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Lojas Americanas</t>
+          <t>LREN3</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>33.014.556/0001-96</t>
+          <t>Lojas Renner</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>LOJAS AMERICANAS SA</t>
+          <t>92.754.738/0001-62</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Consumo Cíclico/Comércio/Produtos Diversos</t>
-        </is>
-      </c>
-      <c r="O44" s="2" t="n">
-        <v>45303</v>
-      </c>
-      <c r="P44" t="inlineStr"/>
+          <t>LOJAS RENNER SA</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Consumo Cíclico/Comércio/Tecidos, Vestuário e Calçados</t>
+        </is>
+      </c>
+      <c r="P44" s="2" t="n">
+        <v>45371.37855324074</v>
+      </c>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t>AMERICANAS S.A.</t>
-        </is>
-      </c>
-      <c r="V44" t="n">
-        <v>4987</v>
-      </c>
-      <c r="W44" s="2" t="n">
-        <v>44317</v>
-      </c>
-      <c r="X44" t="n">
-        <v>84</v>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>RENNER</t>
+        </is>
+      </c>
+      <c r="W44" t="n">
+        <v>5690</v>
+      </c>
+      <c r="X44" s="2" t="n">
+        <v>44682</v>
       </c>
       <c r="Y44" t="n">
-        <v>59</v>
+        <v>88.12</v>
       </c>
       <c r="Z44" t="n">
-        <v>62.99601037304767</v>
+        <v>95</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>67.22662880910732</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>lojas renner</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr"/>
+          <t>magazine luiza</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
@@ -3969,81 +4007,102 @@
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>magalu</t>
+        </is>
+      </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>cantor,Kenzo,Estela Renner,expert xp</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>lojas renner,LREN3,loja renner,a renner,da renner</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>LREN3</t>
-        </is>
-      </c>
+          <t>dj magazine,Fundador do Magazine Luiza morre,carrefour,conversam com Vogue,À vogue,Bia Kicis,liquida,liquidação,Próximo a Magazine Luiza,black friday,deck do Magazine Luiza</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Lojas Renner</t>
+          <t>MGLU3</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>92.754.738/0001-62</t>
+          <t>Magazine Luiza</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>LOJAS RENNER SA</t>
+          <t>47.960.950/0001-21</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Consumo Cíclico/Comércio/Tecidos, Vestuário e Calçados</t>
-        </is>
-      </c>
-      <c r="O45" s="2" t="n">
-        <v>44985</v>
-      </c>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr"/>
-      <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr">
-        <is>
-          <t>RENNER</t>
-        </is>
-      </c>
-      <c r="V45" t="n">
-        <v>5690</v>
-      </c>
-      <c r="W45" s="2" t="n">
-        <v>44682</v>
-      </c>
-      <c r="X45" t="n">
-        <v>88.12</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>96</v>
-      </c>
+          <t>MAGAZINE LUIZA S.A.</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Consumo Cíclico/Comércio/Eletrodomésticos</t>
+        </is>
+      </c>
+      <c r="P45" s="2" t="n">
+        <v>45373.59445601852</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>MGLU3</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>Consumo Cíclico/Comércio/Eletrodomésticos</t>
+        </is>
+      </c>
+      <c r="S45" t="n">
+        <v>33</v>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="U45" t="n">
+        <v>76.48033217788654</v>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>MAGAZINE LUIZA</t>
+        </is>
+      </c>
+      <c r="W45" t="n">
+        <v>7938</v>
+      </c>
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="n">
-        <v>67.23570511289803</v>
+        <v>57</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>65.27880404305944</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>255</v>
+        <v>305</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>magazine luiza</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
+          <t>natura</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
@@ -4052,85 +4111,70 @@
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>dj magazine,Fundador do Magazine Luiza morre,carrefour,conversam com Vogue,À vogue,Bia Kicis,liquida,liquidação,Próximo a Magazine Luiza,black friday,deck do Magazine Luiza</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>MGLU3</t>
-        </is>
-      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>casa natura musical,ex-executivo,eike,vacinação,união do mundo físico com o digital</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Magazine Luiza</t>
+          <t>NTCO3</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>47.960.950/0001-21</t>
+          <t>Natura</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>MAGAZINE LUIZA S.A.</t>
+          <t>32.785.497/0001-97</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Consumo Cíclico/Comércio/Eletrodomésticos</t>
-        </is>
-      </c>
-      <c r="O46" s="2" t="n">
-        <v>45346</v>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>MGLU3</t>
-        </is>
-      </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>Consumo Cíclico/Comércio/Eletrodomésticos</t>
-        </is>
-      </c>
-      <c r="R46" t="n">
-        <v>33</v>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="T46" t="n">
-        <v>76.48033217788654</v>
-      </c>
-      <c r="U46" t="inlineStr">
-        <is>
-          <t>MAGAZINE LUIZA</t>
-        </is>
-      </c>
-      <c r="V46" t="n">
-        <v>7938</v>
-      </c>
-      <c r="W46" t="inlineStr"/>
+          <t>NATURA &amp; CO HOLDING S.A.</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Consumo não Cíclico/Produtos de Uso Pessoal e de Limpeza/Produtos de Uso Pessoal</t>
+        </is>
+      </c>
+      <c r="P46" s="2" t="n">
+        <v>45373.61296296296</v>
+      </c>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>NATURA</t>
+        </is>
+      </c>
+      <c r="W46" t="n">
+        <v>10000</v>
+      </c>
       <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="n">
-        <v>56</v>
-      </c>
+      <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="n">
-        <v>65.09140820924604</v>
+        <v>158</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>58.56527891772079</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>natura</t>
+          <t>neoenergia</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -4142,69 +4186,70 @@
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>casa natura musical,ex-executivo,eike,vacinação,união do mundo físico com o digital</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>NTCO3</t>
-        </is>
-      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>desvios de energia,gatos,cabos partidos</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Natura</t>
+          <t>NEOE3</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>32.785.497/0001-97</t>
+          <t>Neoenergia</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>NATURA &amp; CO HOLDING S.A.</t>
+          <t>01.083.200/0001-18</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Consumo não Cíclico/Produtos de Uso Pessoal e de Limpeza/Produtos de Uso Pessoal</t>
-        </is>
-      </c>
-      <c r="O47" s="2" t="n">
-        <v>45324</v>
-      </c>
-      <c r="P47" t="inlineStr"/>
+          <t>NEOENERGIA S.A</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Utilidade Pública/Energia Elétrica (Distribuição)</t>
+        </is>
+      </c>
+      <c r="P47" s="2" t="n">
+        <v>45371.66962962963</v>
+      </c>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr">
-        <is>
-          <t>NATURA</t>
-        </is>
-      </c>
-      <c r="V47" t="n">
-        <v>10000</v>
-      </c>
-      <c r="W47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>NEOENERGIA</t>
+        </is>
+      </c>
+      <c r="W47" t="n">
+        <v>3619</v>
+      </c>
       <c r="X47" t="inlineStr"/>
-      <c r="Y47" t="n">
-        <v>155</v>
-      </c>
+      <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="n">
-        <v>58.49575923252727</v>
+        <v>170</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>75.80936860653874</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>289</v>
+        <v>311</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>neoenergia</t>
+          <t>nubank</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -4216,76 +4261,65 @@
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>desvios de energia,gatos,cabos partidos</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>NEOE3</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>Neoenergia</t>
-        </is>
-      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>ex-executivo do Nubank,ex-executiva do Nubank,divulgou seus números,lança seguro,ANBIMA Day,Apple Pay,campanha de seguro,Nubank vai premiar com,n26</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
-          <t>01.083.200/0001-18</t>
+          <t>Nubank</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>NEOENERGIA S.A</t>
+          <t>18.236.120/0001-58</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Utilidade Pública/Energia Elétrica (Distribuição)</t>
-        </is>
-      </c>
-      <c r="O48" s="2" t="n">
-        <v>44974</v>
-      </c>
-      <c r="P48" t="inlineStr"/>
+          <t>Nu Pagamentos S. A.</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" s="2" t="n">
+        <v>45373.39166666667</v>
+      </c>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr">
-        <is>
-          <t>NEOENERGIA</t>
-        </is>
-      </c>
-      <c r="V48" t="n">
-        <v>3619</v>
-      </c>
-      <c r="W48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>NUBANK</t>
+        </is>
+      </c>
+      <c r="W48" t="n">
+        <v>7037</v>
+      </c>
       <c r="X48" t="inlineStr"/>
-      <c r="Y48" t="n">
-        <v>168</v>
-      </c>
+      <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="n">
-        <v>75.80991960648144</v>
+        <v>86</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>29.93988239163156</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>293</v>
+        <v>329</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>nubank</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
+          <t>petrobras</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
@@ -4294,65 +4328,70 @@
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>ex-executivo do Nubank,ex-executiva do Nubank,divulgou seus números,lança seguro,ANBIMA Day,Apple Pay,campanha de seguro,Nubank vai premiar com,n26</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Nubank</t>
-        </is>
-      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>no Clube dos Empregados da Petrobras</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Nubank</t>
+          <t>PETR4</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>18.236.120/0001-58</t>
+          <t>Petrobras</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>Nu Pagamentos S. A.</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" s="2" t="n">
-        <v>45317</v>
-      </c>
-      <c r="P49" t="inlineStr"/>
+          <t>33.000.167/0001-01</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>PETRÓLEO BRASILEIRO S.A. – PETROBRAS</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" s="2" t="n">
+        <v>45373.49652777778</v>
+      </c>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>NUBANK</t>
-        </is>
-      </c>
-      <c r="V49" t="n">
-        <v>7037</v>
-      </c>
-      <c r="W49" t="inlineStr"/>
-      <c r="X49" t="inlineStr"/>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>PETROBRAS</t>
+        </is>
+      </c>
+      <c r="W49" t="n">
+        <v>4486</v>
+      </c>
+      <c r="X49" s="2" t="n">
+        <v>44774</v>
+      </c>
       <c r="Y49" t="n">
-        <v>64</v>
+        <v>60.99</v>
       </c>
       <c r="Z49" t="n">
-        <v>28.70877567994637</v>
+        <v>271</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>27.9168577161123</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>311</v>
+        <v>337</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>petrobras</t>
+          <t>porto seguro</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -4364,69 +4403,74 @@
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>no Clube dos Empregados da Petrobras</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>é um porto seguro,bahia,praia,porto alegre</t>
+        </is>
+      </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>PETR4</t>
+          <t>a porto,seguros,saúde,da porto,seguradora,seguradoras</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Petrobras</t>
+          <t>PSSA3</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>33.000.167/0001-01</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>PETRÓLEO BRASILEIRO S.A. – PETROBRAS</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr"/>
-      <c r="O50" s="2" t="n">
-        <v>45359.94446759259</v>
-      </c>
-      <c r="P50" t="inlineStr"/>
+          <t>02.149.205/0001-69</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>PORTO SEGURO SA</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Financeiro e Outros/Previdência e Seguros/Seguradoras</t>
+        </is>
+      </c>
+      <c r="P50" s="2" t="n">
+        <v>45368</v>
+      </c>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>PETROBRAS</t>
-        </is>
-      </c>
-      <c r="V50" t="n">
-        <v>4486</v>
-      </c>
-      <c r="W50" s="2" t="n">
-        <v>44774</v>
-      </c>
-      <c r="X50" t="n">
-        <v>60.99</v>
-      </c>
-      <c r="Y50" t="n">
-        <v>262</v>
-      </c>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>PORTO SEGURO</t>
+        </is>
+      </c>
+      <c r="W50" t="n">
+        <v>5953</v>
+      </c>
+      <c r="X50" t="inlineStr"/>
+      <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="n">
-        <v>27.52152086535722</v>
+        <v>21</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>71.77622761104945</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>320</v>
+        <v>346</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>porto seguro</t>
+          <t>raia drogasil</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -4437,74 +4481,91 @@
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>é um porto seguro,bahia,praia,porto alegre</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>a porto,seguros,saúde,da porto,seguradora,seguradoras</t>
+          <t>pague menos,como vai funcionar a aplicação</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>PSSA3</t>
+          <t>RADL3,drogasil,raia,farmácia,farmácias,drogaria,drogarias</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>RADL3</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>02.149.205/0001-69</t>
+          <t>Raia Drogasil RD</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>PORTO SEGURO SA</t>
+          <t>61.585.865/0001-51</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Financeiro e Outros/Previdência e Seguros/Seguradoras</t>
-        </is>
-      </c>
-      <c r="O51" s="2" t="n">
-        <v>44981</v>
-      </c>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr"/>
-      <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr">
-        <is>
-          <t>PORTO SEGURO</t>
-        </is>
-      </c>
-      <c r="V51" t="n">
-        <v>5953</v>
-      </c>
+          <t>RAIA DROGASIL S.A.</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Saúde/Comércio e Distribuição/Medicamentos e Outros Produtos</t>
+        </is>
+      </c>
+      <c r="P51" s="2" t="n">
+        <v>45373.62025462963</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>RADL3</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>Saúde/Comércio e Distribuição/Medicamentos e Outros Produtos</t>
+        </is>
+      </c>
+      <c r="S51" t="n">
+        <v>37</v>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="U51" t="n">
+        <v>76.00639697729663</v>
+      </c>
+      <c r="V51" t="inlineStr"/>
       <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
-      <c r="Y51" t="n">
-        <v>20</v>
-      </c>
+      <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="n">
-        <v>71.11547655364522</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AA51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>raia drogasil</t>
+          <t>raizen</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -4516,96 +4577,73 @@
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>pague menos,como vai funcionar a aplicação</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>RADL3</t>
-        </is>
-      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Grupo Fit</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Raia Drogasil</t>
+          <t>RAIZ4</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>61.585.865/0001-51</t>
+          <t>Raízen</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>RAIA DROGASIL S.A.</t>
+          <t>33.453.598/0001-23</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Saúde/Comércio e Distribuição/Medicamentos e Outros Produtos</t>
-        </is>
-      </c>
-      <c r="O52" s="2" t="n">
-        <v>44973</v>
-      </c>
-      <c r="P52" t="inlineStr">
-        <is>
-          <t>RADL3</t>
-        </is>
-      </c>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>Saúde/Comércio e Distribuição/Medicamentos e Outros Produtos</t>
-        </is>
-      </c>
-      <c r="R52" t="n">
-        <v>37</v>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="T52" t="n">
-        <v>76.00639697729663</v>
-      </c>
-      <c r="U52" t="inlineStr">
-        <is>
-          <t>RAIA DROGASIL</t>
-        </is>
-      </c>
-      <c r="V52" t="n">
-        <v>4629</v>
-      </c>
-      <c r="W52" s="2" t="n">
-        <v>44593</v>
-      </c>
-      <c r="X52" t="n">
-        <v>78.62</v>
-      </c>
-      <c r="Y52" t="n">
-        <v>22</v>
-      </c>
+          <t>RAÍZEN COMBUSTÍVEIS S.A</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>Consumo não Cíclico/Agropecuária/Agricultura</t>
+        </is>
+      </c>
+      <c r="P52" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>RAÍZEN</t>
+        </is>
+      </c>
+      <c r="W52" t="n">
+        <v>3552</v>
+      </c>
+      <c r="X52" t="inlineStr"/>
+      <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="n">
-        <v>63.78477472009902</v>
+        <v>94</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>75.64614779229422</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>329</v>
+        <v>357</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>raizen</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
+          <t>rumo</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
@@ -4614,76 +4652,85 @@
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Grupo Fit</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>rumo a,um rumo,rumo ao,nosso rumo,de rumo,filmes</t>
+        </is>
+      </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>RAIZ4</t>
+          <t>rumo logística,da rumo,logística,RAIL3,ferrovias,ferroviárias,ferroviário,a rumo,rumolog,empresa rumo</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Raízen</t>
+          <t>RAIL3</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>33.453.598/0001-23</t>
+          <t>Rumo</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>RAÍZEN COMBUSTÍVEIS S.A</t>
+          <t>02.387.241/0001-60</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Consumo não Cíclico/Agropecuária/Agricultura</t>
-        </is>
-      </c>
-      <c r="O53" s="2" t="n">
-        <v>45351</v>
-      </c>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr"/>
-      <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr">
-        <is>
-          <t>RAÍZEN</t>
-        </is>
-      </c>
-      <c r="V53" t="n">
-        <v>3552</v>
-      </c>
+          <t>RUMO S.A.</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>Bens Industriais/Transporte/Transporte Ferroviário</t>
+        </is>
+      </c>
+      <c r="P53" s="2" t="n">
+        <v>45373.556875</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>RAIL3</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>Bens Industriais/Transporte/Transporte Ferroviário</t>
+        </is>
+      </c>
+      <c r="S53" t="n">
+        <v>43</v>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="U53" t="n">
+        <v>74.8002669574454</v>
+      </c>
+      <c r="V53" t="inlineStr"/>
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
-      <c r="Y53" t="n">
-        <v>94</v>
-      </c>
+      <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="n">
-        <v>75.98220664396302</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="AA53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>339</v>
+        <v>358</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>rumo</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
+          <t>sabesp</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
@@ -4692,81 +4739,60 @@
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>rumo a,um rumo,rumo ao,nosso rumo,de rumo,filmes</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>rumo logística,da rumo,logística,RAIL3,ferrovias,ferroviárias,ferroviário,a rumo,rumolog,empresa rumo</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>RAIL3</t>
-        </is>
-      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Rumo</t>
+          <t>SBSP3</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>02.387.241/0001-60</t>
+          <t>Sabesp</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>RUMO S.A.</t>
+          <t>43.776.517/0001-80</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Bens Industriais/Transporte/Transporte Ferroviário</t>
-        </is>
-      </c>
-      <c r="O54" s="2" t="n">
-        <v>44981</v>
-      </c>
-      <c r="P54" t="inlineStr">
-        <is>
-          <t>RAIL3</t>
-        </is>
-      </c>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>Bens Industriais/Transporte/Transporte Ferroviário</t>
-        </is>
-      </c>
-      <c r="R54" t="n">
-        <v>43</v>
-      </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="T54" t="n">
-        <v>74.8002669574454</v>
-      </c>
+          <t>CIA SANEAMENTO BÁSICO ESTADO SÃO PAULO</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" s="2" t="n">
+        <v>45373.52950231481</v>
+      </c>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr"/>
       <c r="W54" t="inlineStr"/>
-      <c r="X54" t="inlineStr"/>
+      <c r="X54" s="2" t="n">
+        <v>44927</v>
+      </c>
       <c r="Y54" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z54" t="inlineStr"/>
+        <v>68.09</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>114</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>53.68489897796282</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>340</v>
+        <v>371</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>sabesp</t>
+          <t>simpar</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -4780,57 +4806,72 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>SBSP3</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Sabesp</t>
+          <t>SIMH3</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>43.776.517/0001-80</t>
+          <t>Simpar</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>CIA SANEAMENTO BÁSICO ESTADO SÃO PAULO</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr"/>
-      <c r="O55" s="2" t="n">
-        <v>45321</v>
-      </c>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="inlineStr"/>
-      <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr"/>
+          <t>07.415.333/0001-20</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>SIMPAR S.A.</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>Financeiro e Outros/Holdings Diversificadas</t>
+        </is>
+      </c>
+      <c r="P55" s="2" t="n">
+        <v>45370.80050925926</v>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>SIMH3</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>Financeiro e Outros/Holdings Diversificadas</t>
+        </is>
+      </c>
+      <c r="S55" t="n">
+        <v>66</v>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="U55" t="n">
+        <v>63.76190651426799</v>
+      </c>
       <c r="V55" t="inlineStr"/>
-      <c r="W55" s="2" t="n">
-        <v>44927</v>
-      </c>
-      <c r="X55" t="n">
-        <v>68.09</v>
-      </c>
-      <c r="Y55" t="n">
-        <v>113</v>
-      </c>
+      <c r="W55" t="inlineStr"/>
+      <c r="X55" t="inlineStr"/>
+      <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="n">
-        <v>53.68500994812171</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="AA55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>simpar</t>
+          <t>suzano</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -4846,76 +4887,69 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>SIMH3</t>
+          <t>papel,celulose,a suzano,da suzano,eucalipto,Suzano SA,SUZB3,Suzano S/A</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Simpar</t>
+          <t>SUZB3</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>07.415.333/0001-20</t>
+          <t>Suzano</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>SIMPAR S.A.</t>
+          <t>16.404.287/0001-55</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Financeiro e Outros/Holdings Diversificadas</t>
-        </is>
-      </c>
-      <c r="O56" s="2" t="n">
-        <v>44972</v>
-      </c>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>SIMH3</t>
-        </is>
-      </c>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>Financeiro e Outros/Holdings Diversificadas</t>
-        </is>
-      </c>
-      <c r="R56" t="n">
-        <v>66</v>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="T56" t="n">
-        <v>63.76190651426799</v>
-      </c>
+          <t>SUZANO PAPEL E CELULOSE S.A.</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Materiais Básicos/Madeira e Papel/Papel e Celulose</t>
+        </is>
+      </c>
+      <c r="P56" s="2" t="n">
+        <v>45373.51561342592</v>
+      </c>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr"/>
-      <c r="W56" t="inlineStr"/>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>SUZANO</t>
+        </is>
+      </c>
+      <c r="W56" t="n">
+        <v>5082</v>
+      </c>
       <c r="X56" t="inlineStr"/>
-      <c r="Y56" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr"/>
+      <c r="Z56" t="n">
+        <v>84</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>49.6890419096386</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>362</v>
+        <v>393</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>suzano</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
+          <t>tim</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
@@ -4924,73 +4958,90 @@
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>sao paulo,escola,Suzano-SP</t>
-        </is>
-      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>papel,celulose,a suzano,da suzano,eucalipto,Suzano SA,SUZB3</t>
+          <t>cook,Galaxy,Apple,tim-tim,tim maia,tim lopes</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>SUZB3</t>
+          <t>a tim,telefonia,celular,celulares,anatel,5G,4G,operadora,smartphone,smartphones,plataforma,empresas,Telefônica,operadoras,banda larga,da tim,telecom,telecomunicações,telecomunicação,tim inaugura,TIM Brasil,a tim,da tim,tims3</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Suzano</t>
+          <t>TIMS3</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>16.404.287/0001-55</t>
+          <t>TIM</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>SUZANO PAPEL E CELULOSE S.A.</t>
+          <t>02.421.421/0001-11</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Materiais Básicos/Madeira e Papel/Papel e Celulose</t>
-        </is>
-      </c>
-      <c r="O57" s="2" t="n">
-        <v>44985</v>
-      </c>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="inlineStr"/>
-      <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr">
-        <is>
-          <t>SUZANO</t>
-        </is>
-      </c>
-      <c r="V57" t="n">
-        <v>5082</v>
-      </c>
-      <c r="W57" t="inlineStr"/>
+          <t>TIM S.A.</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>Telecomunicações</t>
+        </is>
+      </c>
+      <c r="P57" s="2" t="n">
+        <v>45373.62025462963</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>TIMS3</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>Telecomunicações</t>
+        </is>
+      </c>
+      <c r="S57" t="n">
+        <v>11</v>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="U57" t="n">
+        <v>82.15944638761668</v>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>TIM</t>
+        </is>
+      </c>
+      <c r="W57" t="n">
+        <v>3809</v>
+      </c>
       <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="n">
-        <v>75</v>
-      </c>
+      <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="n">
-        <v>65.30298820929727</v>
+        <v>82</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>67.3025477417243</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>375</v>
+        <v>404</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>tim</t>
+          <t>ultrapar</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -5001,90 +5052,71 @@
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>cook,Galaxy,Apple,tim-tim,tim maia,tim lopes</t>
-        </is>
-      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>ipiranga,ultragaz,grupo ultra</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>a tim,telefonia,celular,celulares,anatel,5G,4G,operadora,smartphone,smartphones,plataforma,empresas,Telefônica,operadoras,banda larga,da tim,telecom,telecomunicações,telecomunicação,tim inaugura,TIM Brasil,a tim,da tim,tims3</t>
+          <t>ex-CFO da Ultrapar,Pergunta lá,Talent Marcel</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>TIMS3</t>
+          <t>ultrapar,ipiranga,ultragaz,grupo ultra,ugpa3</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>TIM</t>
+          <t>UGPA3</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>02.421.421/0001-11</t>
+          <t>Ultrapar</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>TIM S.A.</t>
+          <t>33.256.439/0001-39</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Telecomunicações</t>
-        </is>
-      </c>
-      <c r="O58" s="2" t="n">
-        <v>44981</v>
-      </c>
-      <c r="P58" t="inlineStr">
-        <is>
-          <t>TIMS3</t>
-        </is>
-      </c>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>Telecomunicações</t>
-        </is>
-      </c>
-      <c r="R58" t="n">
-        <v>11</v>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="T58" t="n">
-        <v>82.15944638761668</v>
-      </c>
-      <c r="U58" t="inlineStr">
-        <is>
-          <t>TIM</t>
-        </is>
-      </c>
-      <c r="V58" t="n">
-        <v>3809</v>
-      </c>
+          <t>ULTRAPAR PARTICIPAÇÕES SA</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" s="2" t="n">
+        <v>45371.72074074074</v>
+      </c>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
       <c r="W58" t="inlineStr"/>
-      <c r="X58" t="inlineStr"/>
+      <c r="X58" s="2" t="n">
+        <v>44927</v>
+      </c>
       <c r="Y58" t="n">
-        <v>82</v>
+        <v>61.77</v>
       </c>
       <c r="Z58" t="n">
-        <v>67.3025477417243</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="AA58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>386</v>
+        <v>413</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ultrapar</t>
+          <t>vale</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -5095,152 +5127,158 @@
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>ipiranga,ultragaz,grupo ultra</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>ex-CFO da Ultrapar,Pergunta lá,Talent Marcel</t>
-        </is>
-      </c>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>ultrapar,ipiranga,ultragaz,grupo ultra,ugpa3</t>
+          <t>theranos,silício,vale ressaltar,vale lembrar,vale frisar,vale a pena,vale tudo isso,vale tudo,vale-transporte,vale do dendê,vale o,afirmou Vale,vale contar</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>UGPA3</t>
+          <t>A Vale,mineradora,mineração,barragem,minério,VALE5,VALE4,da vale,VALE3,barragens,rio doce,mineração,na vale,samarco</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Ultrapar</t>
+          <t>VALE3</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>33.256.439/0001-39</t>
+          <t>Vale</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>ULTRAPAR PARTICIPAÇÕES SA</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr"/>
-      <c r="O59" s="2" t="n">
-        <v>45341</v>
-      </c>
-      <c r="P59" t="inlineStr"/>
+          <t>33.592.510/0001-54</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>VALE S.A.</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" s="2" t="n">
+        <v>45373.6125</v>
+      </c>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr"/>
-      <c r="W59" s="2" t="n">
-        <v>44927</v>
-      </c>
-      <c r="X59" t="n">
-        <v>61.77</v>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>VALE</t>
+        </is>
+      </c>
+      <c r="W59" t="n">
+        <v>3682</v>
+      </c>
+      <c r="X59" s="2" t="n">
+        <v>44593</v>
       </c>
       <c r="Y59" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z59" t="inlineStr"/>
+        <v>60.89</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>443</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>34.66983166146084</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>395</v>
+        <v>426</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>vale</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr"/>
+          <t>vivo</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>theranos,silício,vale ressaltar,vale lembrar,vale frisar,vale a pena,vale tudo isso,vale tudo,vale-transporte,vale do dendê,vale o,afirmou Vale,vale contar</t>
-        </is>
-      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>A Vale,mineradora,mineração,barragem,minério,VALE5,VALE4,da vale,VALE3,barragens,rio doce,mineração</t>
+          <t>brasileirao,ao vivo,Dinheiro Vivo,morto-vivo,5G da Vivo vai funcionar,Taquari-Antas,Vivo Keyd,manter vivo,Black Friday,já foi executivo-chefe da Vivo,masp vivo,messenger,ao lado da Vivo</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>VALE3</t>
+          <t>a vivo,telefonia,celular,celulares,anatel,5G,4G,operadora,smartphone,smartphones,plataforma,empresas,Telefônica,operadoras,banda larga,da Vivo,telecom,telecomunicações,telecomunicação,VIVT3,Vivo inaugura,vivo brasil</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Vale</t>
+          <t>VIVT3</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>33.592.510/0001-54</t>
+          <t>Vivo</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>VALE S.A.</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr"/>
-      <c r="O60" s="2" t="n">
-        <v>45360.1206712963</v>
-      </c>
-      <c r="P60" t="inlineStr"/>
+          <t>02.558.157/0001-62</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>TELEFÔNICA BRASIL S.A.</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>Telecomunicações</t>
+        </is>
+      </c>
+      <c r="P60" s="2" t="n">
+        <v>45373.51561342592</v>
+      </c>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr">
-        <is>
-          <t>VALE</t>
-        </is>
-      </c>
-      <c r="V60" t="n">
-        <v>3682</v>
-      </c>
-      <c r="W60" s="2" t="n">
+      <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>VIVO</t>
+        </is>
+      </c>
+      <c r="W60" t="n">
+        <v>5706</v>
+      </c>
+      <c r="X60" s="2" t="n">
         <v>44593</v>
       </c>
-      <c r="X60" t="n">
-        <v>60.89</v>
-      </c>
       <c r="Y60" t="n">
-        <v>465</v>
+        <v>80.53</v>
       </c>
       <c r="Z60" t="n">
-        <v>31.21465267090375</v>
+        <v>124</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>75.9389486938371</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>405</v>
+        <v>431</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>vivo</t>
+          <t>weg</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -5252,146 +5290,65 @@
       </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>brasileirao,ao vivo,Dinheiro Vivo,morto-vivo,5G da Vivo vai funcionar,Taquari-Antas,Vivo Keyd,manter vivo,Black Friday,já foi executivo-chefe da Vivo,masp vivo,messenger,ao lado da Vivo</t>
-        </is>
-      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>a vivo,telefonia,celular,celulares,anatel,5G,4G,operadora,smartphone,smartphones,plataforma,empresas,Telefônica,operadoras,banda larga,da Vivo,telecom,telecomunicações,telecomunicação,VIVT3,Vivo inaugura,vivo brasil</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>VIVT3</t>
-        </is>
-      </c>
+          <t>Outros grandes fornecedores são a WEG</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Vivo</t>
+          <t>WEGE3</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>02.558.157/0001-62</t>
+          <t>WEG</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>TELEFÔNICA BRASIL S.A.</t>
+          <t>84.429.695/0001-11</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Telecomunicações</t>
-        </is>
-      </c>
-      <c r="O61" s="2" t="n">
-        <v>45349</v>
-      </c>
-      <c r="P61" t="inlineStr"/>
+          <t>WEG SA</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>Bens Industriais/Máquinas e Equipamentos/Motores , Compressores e Outros</t>
+        </is>
+      </c>
+      <c r="P61" s="2" t="n">
+        <v>45373.60416666666</v>
+      </c>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr"/>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr">
-        <is>
-          <t>VIVO</t>
-        </is>
-      </c>
-      <c r="V61" t="n">
-        <v>5706</v>
-      </c>
-      <c r="W61" s="2" t="n">
-        <v>44593</v>
-      </c>
-      <c r="X61" t="n">
-        <v>80.53</v>
+      <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>WEG</t>
+        </is>
+      </c>
+      <c r="W61" t="n">
+        <v>3573</v>
+      </c>
+      <c r="X61" s="2" t="n">
+        <v>44682</v>
       </c>
       <c r="Y61" t="n">
-        <v>117</v>
+        <v>76.63</v>
       </c>
       <c r="Z61" t="n">
-        <v>75.93371131783799</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>410</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>weg</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Outros grandes fornecedores são a WEG</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>WEGE3</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>WEG</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>84.429.695/0001-11</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>WEG SA</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>Bens Industriais/Máquinas e Equipamentos/Motores , Compressores e Outros</t>
-        </is>
-      </c>
-      <c r="O62" s="2" t="n">
-        <v>45352</v>
-      </c>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="inlineStr"/>
-      <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr">
-        <is>
-          <t>WEG</t>
-        </is>
-      </c>
-      <c r="V62" t="n">
-        <v>3573</v>
-      </c>
-      <c r="W62" s="2" t="n">
-        <v>44682</v>
-      </c>
-      <c r="X62" t="n">
-        <v>76.63</v>
-      </c>
-      <c r="Y62" t="n">
-        <v>43</v>
-      </c>
-      <c r="Z62" t="n">
-        <v>63.40357279009137</v>
+        <v>51</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>59.16215564734496</v>
       </c>
     </row>
   </sheetData>
